--- a/data/trans_orig/P6702-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6702-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>14344</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8097</v>
+        <v>8169</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21895</v>
+        <v>22584</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1779150006249192</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.100423317245331</v>
+        <v>0.1013167488014052</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2715668491000404</v>
+        <v>0.280113158877422</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -764,19 +764,19 @@
         <v>19781</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12382</v>
+        <v>13013</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27857</v>
+        <v>28297</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2252880894353168</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1410259126053626</v>
+        <v>0.1482096689641887</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3172706161898176</v>
+        <v>0.3222810567229993</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -785,19 +785,19 @@
         <v>34125</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24616</v>
+        <v>24880</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45410</v>
+        <v>46037</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2026107606941341</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1461528398879908</v>
+        <v>0.1477244786648611</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2696158775990485</v>
+        <v>0.2733379468853141</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>15937</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9087</v>
+        <v>9701</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25058</v>
+        <v>25351</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1976624016097859</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1127065579211184</v>
+        <v>0.1203215082991445</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3107929952274566</v>
+        <v>0.3144268261314375</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -835,19 +835,19 @@
         <v>13978</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8085</v>
+        <v>7986</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22018</v>
+        <v>21575</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1592015892095799</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09207970667058152</v>
+        <v>0.09096137794190072</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2507756131629197</v>
+        <v>0.2457237899159286</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>29</v>
@@ -856,19 +856,19 @@
         <v>29914</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20633</v>
+        <v>21083</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41456</v>
+        <v>42326</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1776126430030787</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1225077205483351</v>
+        <v>0.1251790418360042</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2461396374066259</v>
+        <v>0.2513050982497783</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>27071</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19108</v>
+        <v>19112</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>36793</v>
+        <v>36547</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3357690429790741</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2370040425212754</v>
+        <v>0.2370425646252612</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4563437462130935</v>
+        <v>0.4532991292643791</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -906,19 +906,19 @@
         <v>21056</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14053</v>
+        <v>13803</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28953</v>
+        <v>30050</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2398169907871701</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1600498271129025</v>
+        <v>0.1572065482281905</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3297546095350306</v>
+        <v>0.342249463382086</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>47</v>
@@ -927,19 +927,19 @@
         <v>48127</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>35782</v>
+        <v>36914</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>59823</v>
+        <v>60124</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2857488961281058</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2124490097853127</v>
+        <v>0.2191687990123498</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3551887287295938</v>
+        <v>0.3569768019111452</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>14015</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8154</v>
+        <v>7973</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22424</v>
+        <v>22824</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1738297616564765</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1011343354449762</v>
+        <v>0.09888649008825878</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2781245257561288</v>
+        <v>0.2830864866640738</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -977,19 +977,19 @@
         <v>22651</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15276</v>
+        <v>15464</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32085</v>
+        <v>32243</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2579782665876972</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.173989958828719</v>
+        <v>0.1761225742986172</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3654260367989171</v>
+        <v>0.367230104631313</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -998,19 +998,19 @@
         <v>36666</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26969</v>
+        <v>27217</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49344</v>
+        <v>50247</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2176966772439707</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1601256435185059</v>
+        <v>0.1615959467871211</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2929756855593147</v>
+        <v>0.2983359439463218</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>9258</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4791</v>
+        <v>4548</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16276</v>
+        <v>16194</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1148237931297443</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05942098543353413</v>
+        <v>0.05641147206351923</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2018768866216556</v>
+        <v>0.2008526935762117</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1048,19 +1048,19 @@
         <v>10336</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5266</v>
+        <v>5148</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17614</v>
+        <v>17714</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.117715063980236</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05997642211321166</v>
+        <v>0.05863419926298171</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.200613206364273</v>
+        <v>0.2017465938047545</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -1069,19 +1069,19 @@
         <v>19593</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12091</v>
+        <v>11668</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>29219</v>
+        <v>28176</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1163310229307107</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07178909078879749</v>
+        <v>0.06927506779925319</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1734808959193774</v>
+        <v>0.167293140969851</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>68019</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52454</v>
+        <v>52517</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86509</v>
+        <v>84350</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.177285317198769</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1367153568499618</v>
+        <v>0.1368789961033298</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2254772203139843</v>
+        <v>0.2198490774631746</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -1194,19 +1194,19 @@
         <v>54661</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40662</v>
+        <v>41615</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69420</v>
+        <v>69086</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1971963564472196</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1466931595899685</v>
+        <v>0.1501296746134245</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2504394193624603</v>
+        <v>0.2492365963442421</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>113</v>
@@ -1215,19 +1215,19 @@
         <v>122681</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>102776</v>
+        <v>104654</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>143752</v>
+        <v>144844</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1856367858055921</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.155517989384337</v>
+        <v>0.1583588136576145</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2175211832111798</v>
+        <v>0.2191739702250227</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>62619</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>48788</v>
+        <v>49301</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>80403</v>
+        <v>80138</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1632088625132883</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1271599237482611</v>
+        <v>0.1284970186190708</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.209563045911907</v>
+        <v>0.2088708557962436</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -1265,19 +1265,19 @@
         <v>42399</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30295</v>
+        <v>31207</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56354</v>
+        <v>56994</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1529602154081875</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1092938020122773</v>
+        <v>0.1125833980270389</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2033016138105537</v>
+        <v>0.2056103226905349</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>96</v>
@@ -1286,19 +1286,19 @@
         <v>105018</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>87058</v>
+        <v>86815</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>127104</v>
+        <v>125111</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1589101790798096</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1317335747593402</v>
+        <v>0.1313654197627067</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1923293400330774</v>
+        <v>0.1893140929821918</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>117972</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>99350</v>
+        <v>99476</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>136168</v>
+        <v>137041</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3074826678463413</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2589457211266828</v>
+        <v>0.2592724240563584</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3549082223994157</v>
+        <v>0.3571825916739357</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>90</v>
@@ -1336,19 +1336,19 @@
         <v>96475</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>79522</v>
+        <v>80897</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>115048</v>
+        <v>112327</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3480430545866252</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2868853649050607</v>
+        <v>0.2918434442841855</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4150480929649122</v>
+        <v>0.4052311270029622</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>205</v>
@@ -1357,19 +1357,19 @@
         <v>214447</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>192531</v>
+        <v>188370</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>241338</v>
+        <v>237788</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.324495280413435</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2913322615975718</v>
+        <v>0.2850359501780934</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3651855182515345</v>
+        <v>0.3598135116725436</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>72171</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58595</v>
+        <v>57837</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88410</v>
+        <v>88765</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1881065903243933</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1527227541403969</v>
+        <v>0.1507469871154903</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2304324987066262</v>
+        <v>0.231355333515184</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -1407,19 +1407,19 @@
         <v>50515</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38807</v>
+        <v>37291</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64218</v>
+        <v>63716</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1822397702577435</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1399993865418605</v>
+        <v>0.1345312311472479</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2316746027133594</v>
+        <v>0.2298636383495332</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>122</v>
@@ -1428,19 +1428,19 @@
         <v>122687</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>104138</v>
+        <v>104433</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>143896</v>
+        <v>144687</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1856458165296594</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1575790881291814</v>
+        <v>0.1580246050037412</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.217739052626666</v>
+        <v>0.2189361024001346</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>62890</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48992</v>
+        <v>50323</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>79479</v>
+        <v>80489</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1639165621172081</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1276929417417109</v>
+        <v>0.1311611784825086</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.20715400960727</v>
+        <v>0.2097869024656964</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -1478,19 +1478,19 @@
         <v>33141</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23793</v>
+        <v>23558</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46141</v>
+        <v>46095</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1195606033002241</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08583715580425817</v>
+        <v>0.08498633035199066</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1664600582215011</v>
+        <v>0.1662913929500768</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>91</v>
@@ -1499,19 +1499,19 @@
         <v>96031</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>77954</v>
+        <v>78991</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>115492</v>
+        <v>116487</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1453119381715038</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1179571194212121</v>
+        <v>0.1195264965853429</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1747588877329833</v>
+        <v>0.1762653510283909</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>68663</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53594</v>
+        <v>54284</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84608</v>
+        <v>86558</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1611223681058601</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.125762796500871</v>
+        <v>0.1273828238272178</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1985398225743758</v>
+        <v>0.2031146634994634</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -1624,19 +1624,19 @@
         <v>57137</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44498</v>
+        <v>44279</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72077</v>
+        <v>70838</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2014140969540058</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1568594530805852</v>
+        <v>0.1560873710926139</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2540799142131348</v>
+        <v>0.2497121328193679</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>119</v>
@@ -1645,19 +1645,19 @@
         <v>125800</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>105925</v>
+        <v>106778</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>146877</v>
+        <v>145433</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1772246695684672</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1492261131695185</v>
+        <v>0.1504270060592399</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2069182752427506</v>
+        <v>0.2048841945292124</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>66869</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52419</v>
+        <v>51793</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83427</v>
+        <v>83115</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1569126941842789</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1230052509892272</v>
+        <v>0.1215365817872582</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1957692536975564</v>
+        <v>0.1950368007478831</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -1695,19 +1695,19 @@
         <v>48719</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>36060</v>
+        <v>36619</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>62128</v>
+        <v>62971</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1717383887077244</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1271149572472031</v>
+        <v>0.1290875706611212</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2190078488256554</v>
+        <v>0.2219811770285275</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>107</v>
@@ -1716,19 +1716,19 @@
         <v>115587</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>96502</v>
+        <v>96950</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>136422</v>
+        <v>138641</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1628376770389183</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1359500516227652</v>
+        <v>0.1365816138939626</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1921889660276045</v>
+        <v>0.1953151407135428</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>151922</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>133316</v>
+        <v>133082</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>173334</v>
+        <v>174018</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3564983495204521</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3128362656456715</v>
+        <v>0.3122871845734519</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4067411127276852</v>
+        <v>0.4083467582443616</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>98</v>
@@ -1766,19 +1766,19 @@
         <v>102187</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>87451</v>
+        <v>86833</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>120078</v>
+        <v>118489</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3602202102328402</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3082732681875249</v>
+        <v>0.3060951344203631</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4232891430965959</v>
+        <v>0.4176882158847653</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>248</v>
@@ -1787,19 +1787,19 @@
         <v>254109</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>228138</v>
+        <v>229911</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>279885</v>
+        <v>282090</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3579857645534128</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3213981133512542</v>
+        <v>0.3238958730759511</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3942987595064013</v>
+        <v>0.3974043917857194</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>92542</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>75758</v>
+        <v>77105</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>109832</v>
+        <v>111614</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2171563373507833</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1777728233333683</v>
+        <v>0.1809340602019428</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2577303069565994</v>
+        <v>0.2619104302705919</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>40</v>
@@ -1837,19 +1837,19 @@
         <v>41087</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30654</v>
+        <v>30280</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56009</v>
+        <v>54570</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1448359774183505</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1080575942778169</v>
+        <v>0.1067396921670234</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1974369062354459</v>
+        <v>0.1923638579622974</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>132</v>
@@ -1858,19 +1858,19 @@
         <v>133629</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>114541</v>
+        <v>113914</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>155554</v>
+        <v>153884</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1882540223891885</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1613639509097625</v>
+        <v>0.1604808114564925</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2191428909890406</v>
+        <v>0.2167899583979178</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>46157</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33580</v>
+        <v>34172</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>62005</v>
+        <v>63348</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1083102508386255</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07879918176574653</v>
+        <v>0.08018629048324094</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1455001330821771</v>
+        <v>0.1486522830730262</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -1908,19 +1908,19 @@
         <v>34550</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23727</v>
+        <v>23940</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46992</v>
+        <v>46434</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.121791326687079</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08364089192890126</v>
+        <v>0.08439151889070819</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1656525293641262</v>
+        <v>0.1636866370318575</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>76</v>
@@ -1929,19 +1929,19 @@
         <v>80706</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>65276</v>
+        <v>63418</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>99121</v>
+        <v>98476</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1136978664500132</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09195926745637283</v>
+        <v>0.08934284224905711</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1396405645896365</v>
+        <v>0.1387322443588509</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>58237</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>45282</v>
+        <v>43881</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>74738</v>
+        <v>72612</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1583978354624471</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.12316125328287</v>
+        <v>0.1193524826280698</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.203277444864147</v>
+        <v>0.1974948795342973</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>54</v>
@@ -2054,19 +2054,19 @@
         <v>61884</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>49056</v>
+        <v>48071</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77558</v>
+        <v>77605</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2746245538040195</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2176971709663919</v>
+        <v>0.2133275642900422</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3441814450865949</v>
+        <v>0.344391063323578</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>107</v>
@@ -2075,19 +2075,19 @@
         <v>120121</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>99121</v>
+        <v>100238</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>140152</v>
+        <v>142013</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2025638017987518</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1671505827193808</v>
+        <v>0.1690337497834092</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2363432030262334</v>
+        <v>0.2394808489543815</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>48523</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>35457</v>
+        <v>35937</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>63628</v>
+        <v>62807</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.131978102315642</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09643900389435983</v>
+        <v>0.09774360145854501</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1730608303713549</v>
+        <v>0.1708288926176464</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>31</v>
@@ -2125,19 +2125,19 @@
         <v>35177</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>24585</v>
+        <v>25847</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>48458</v>
+        <v>48646</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1561061275335874</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1090997064660486</v>
+        <v>0.114700917935216</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2150438903878891</v>
+        <v>0.2158775399572622</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>74</v>
@@ -2146,19 +2146,19 @@
         <v>83700</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>67025</v>
+        <v>67979</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>103510</v>
+        <v>104713</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1411467131543783</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1130264613654694</v>
+        <v>0.1146351636375109</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1745522586632865</v>
+        <v>0.1765803612300583</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>140385</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>119717</v>
+        <v>121134</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>161724</v>
+        <v>160255</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3818318839625504</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3256164661171345</v>
+        <v>0.3294689697892883</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4398708550135946</v>
+        <v>0.4358746392830545</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>67</v>
@@ -2196,19 +2196,19 @@
         <v>75652</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>61657</v>
+        <v>61934</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>90704</v>
+        <v>90807</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3357244538428499</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2736180648198333</v>
+        <v>0.2748455132256465</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4025187503923099</v>
+        <v>0.4029760153386682</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>191</v>
@@ -2217,19 +2217,19 @@
         <v>216038</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>190225</v>
+        <v>190924</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>239527</v>
+        <v>241022</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.364311134555038</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3207829287787227</v>
+        <v>0.3219607167104725</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4039224680477221</v>
+        <v>0.4064428537056927</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>84023</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>69014</v>
+        <v>67459</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>102390</v>
+        <v>100944</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2285321378935469</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1877104097846945</v>
+        <v>0.1834816711174712</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2784882554491684</v>
+        <v>0.2745563612149476</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -2267,19 +2267,19 @@
         <v>35637</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24847</v>
+        <v>23508</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50381</v>
+        <v>49872</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1581473343964544</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.110262570560267</v>
+        <v>0.1043232476100587</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2235784742911423</v>
+        <v>0.2213197934877528</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>103</v>
@@ -2288,19 +2288,19 @@
         <v>119660</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>99816</v>
+        <v>99591</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>142269</v>
+        <v>140643</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2017860255865275</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1683221976364138</v>
+        <v>0.167944295486521</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2399121403139892</v>
+        <v>0.2371715133862543</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>36494</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24471</v>
+        <v>25597</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>52059</v>
+        <v>50320</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0992600403658136</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06655698245140119</v>
+        <v>0.06962056945770033</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1415946240625565</v>
+        <v>0.1368647444331395</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -2338,19 +2338,19 @@
         <v>16990</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9894</v>
+        <v>10059</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>27750</v>
+        <v>28996</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07539753042308885</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04390848855314521</v>
+        <v>0.04464005289441385</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1231468438537922</v>
+        <v>0.1286753791886413</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>44</v>
@@ -2359,19 +2359,19 @@
         <v>53484</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>39793</v>
+        <v>39594</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>70496</v>
+        <v>70863</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09019232490530445</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06710381964723983</v>
+        <v>0.06676780731845472</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1188790976634441</v>
+        <v>0.1194987080187777</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>37167</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27076</v>
+        <v>27396</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>48266</v>
+        <v>48784</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.236201695130746</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1720727759976636</v>
+        <v>0.1741056263529536</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3067428353798914</v>
+        <v>0.3100341307640718</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>17</v>
@@ -2484,19 +2484,19 @@
         <v>17631</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11251</v>
+        <v>11223</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25511</v>
+        <v>25899</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.252991720084188</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1614375672204824</v>
+        <v>0.1610391275120223</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3660653092788109</v>
+        <v>0.3716306243545711</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>52</v>
@@ -2505,19 +2505,19 @@
         <v>54798</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>42839</v>
+        <v>42530</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>69385</v>
+        <v>68142</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2413554076943257</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1886840436626422</v>
+        <v>0.187321712037526</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3056062341634371</v>
+        <v>0.3001306971904628</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>16698</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10158</v>
+        <v>10369</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>25987</v>
+        <v>25726</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1061177261849673</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0645584314035795</v>
+        <v>0.06589597609030289</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1651516747781291</v>
+        <v>0.1634922196093276</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -2555,19 +2555,19 @@
         <v>10451</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5308</v>
+        <v>5311</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17348</v>
+        <v>18467</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.149966436499445</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07617010667276107</v>
+        <v>0.07620306065960389</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2489339580888724</v>
+        <v>0.2649865824661999</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>26</v>
@@ -2576,19 +2576,19 @@
         <v>27149</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18256</v>
+        <v>17755</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>38935</v>
+        <v>37185</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1195771254336959</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08040801455686966</v>
+        <v>0.07820057311859573</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1714907889971607</v>
+        <v>0.163781046376646</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>49319</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>38422</v>
+        <v>37725</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>61580</v>
+        <v>60650</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3134355107591688</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2441798089003047</v>
+        <v>0.2397497186758268</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.39135132824032</v>
+        <v>0.3854424249758914</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>12</v>
@@ -2626,19 +2626,19 @@
         <v>12875</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7558</v>
+        <v>7395</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>21472</v>
+        <v>20433</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1847465594855683</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1084538924767692</v>
+        <v>0.1061140452629301</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3081053273912051</v>
+        <v>0.293194389881967</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>57</v>
@@ -2647,19 +2647,19 @@
         <v>62194</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>49227</v>
+        <v>48756</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>76936</v>
+        <v>75808</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2739343267638055</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2168198320872908</v>
+        <v>0.2147432284476903</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3388644263976345</v>
+        <v>0.3338977711882066</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>30689</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>21202</v>
+        <v>21900</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>42089</v>
+        <v>41864</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1950368261060556</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1347434437698774</v>
+        <v>0.1391808709702552</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2674835647066597</v>
+        <v>0.2660569593566338</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>16</v>
@@ -2697,19 +2697,19 @@
         <v>19509</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12222</v>
+        <v>11546</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>29563</v>
+        <v>28254</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2799404579892726</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1753704375597678</v>
+        <v>0.1656772823642894</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4242000244266182</v>
+        <v>0.4054152368269879</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>46</v>
@@ -2718,19 +2718,19 @@
         <v>50198</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>38922</v>
+        <v>39002</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>64841</v>
+        <v>63541</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2210980687512239</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1714315495424184</v>
+        <v>0.1717855501224087</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2855911743027008</v>
+        <v>0.2798670400969741</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>23478</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14814</v>
+        <v>15536</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>34535</v>
+        <v>34210</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1492082418190624</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09414924603087486</v>
+        <v>0.09873612146759753</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2194794332401661</v>
+        <v>0.2174096799197144</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -2768,19 +2768,19 @@
         <v>9224</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4117</v>
+        <v>4189</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>16772</v>
+        <v>16679</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1323548259415261</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05907677295460316</v>
+        <v>0.0601144194123476</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2406608490291853</v>
+        <v>0.2393231686284883</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>29</v>
@@ -2789,19 +2789,19 @@
         <v>32702</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>22639</v>
+        <v>22175</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>46063</v>
+        <v>45462</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.144035071356949</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09971167350721574</v>
+        <v>0.09766758288964604</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2028839152377843</v>
+        <v>0.2002380414245636</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>246430</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>216153</v>
+        <v>215856</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>276165</v>
+        <v>276089</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1740985186868271</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.152708284107945</v>
+        <v>0.1524983350349379</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1951057955520313</v>
+        <v>0.1950517870909875</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>194</v>
@@ -2914,19 +2914,19 @@
         <v>211094</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>186108</v>
+        <v>185923</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>240552</v>
+        <v>237974</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2236867624936398</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1972101398552696</v>
+        <v>0.1970143470560515</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2549023250806006</v>
+        <v>0.252170739666182</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>425</v>
@@ -2935,19 +2935,19 @@
         <v>457524</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>417481</v>
+        <v>420155</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>494585</v>
+        <v>500079</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1939345869696202</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1769613529808393</v>
+        <v>0.1780948481349521</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.209644044453437</v>
+        <v>0.2119727850144158</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>210645</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>181249</v>
+        <v>185286</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>237749</v>
+        <v>241190</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1488170583776879</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1280494875584561</v>
+        <v>0.1309013552773027</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1679658188693115</v>
+        <v>0.1703962469644555</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>139</v>
@@ -2985,19 +2985,19 @@
         <v>150724</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>129279</v>
+        <v>130054</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>176442</v>
+        <v>175903</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1597157665359947</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.13699096628501</v>
+        <v>0.1378124141860756</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1869681499879935</v>
+        <v>0.1863962202960176</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>332</v>
@@ -3006,19 +3006,19 @@
         <v>361369</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>324859</v>
+        <v>327589</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>399507</v>
+        <v>396793</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1531767110418281</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1377007139348952</v>
+        <v>0.1388581342839328</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1693426077191864</v>
+        <v>0.1681922011807405</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>486671</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>450174</v>
+        <v>451261</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>520550</v>
+        <v>524113</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3438247591395452</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.318040171759042</v>
+        <v>0.3188082808667296</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3677593718766095</v>
+        <v>0.3702767859348624</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>288</v>
@@ -3056,19 +3056,19 @@
         <v>308245</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>280017</v>
+        <v>279155</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>336461</v>
+        <v>333798</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3266337323020794</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2967219126136555</v>
+        <v>0.29580853342583</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3565323107988631</v>
+        <v>0.3537108042646108</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>748</v>
@@ -3077,19 +3077,19 @@
         <v>794916</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>749999</v>
+        <v>748317</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>844038</v>
+        <v>846321</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3369480812009639</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3179086214021571</v>
+        <v>0.3171957713698899</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3577696130108832</v>
+        <v>0.3587374930485518</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>293440</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>264619</v>
+        <v>265412</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>324089</v>
+        <v>323968</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2073102137199298</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1869490064450363</v>
+        <v>0.18750880324723</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2289629895026973</v>
+        <v>0.2288779797924783</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>154</v>
@@ -3127,19 +3127,19 @@
         <v>169399</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>145129</v>
+        <v>146469</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>194824</v>
+        <v>194652</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1795048538325606</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1537862921084187</v>
+        <v>0.1552070995842156</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2064468015172462</v>
+        <v>0.2062638563347709</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>437</v>
@@ -3148,19 +3148,19 @@
         <v>462839</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>423296</v>
+        <v>423109</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>503134</v>
+        <v>506426</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1961876375806692</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1794263056616922</v>
+        <v>0.1793467446018541</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2132679058232806</v>
+        <v>0.2146630916016516</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>178277</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>153152</v>
+        <v>153592</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>206186</v>
+        <v>206161</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.12594945007601</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.108199455710901</v>
+        <v>0.1085102001004065</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1456669726714445</v>
+        <v>0.1456488146437758</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>96</v>
@@ -3198,19 +3198,19 @@
         <v>104240</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>83575</v>
+        <v>88361</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>124482</v>
+        <v>128046</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1104588848357255</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.08856057096973642</v>
+        <v>0.09363245071211686</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1319081636293002</v>
+        <v>0.1356841270629922</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>259</v>
@@ -3219,19 +3219,19 @@
         <v>282517</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>252063</v>
+        <v>250642</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>315029</v>
+        <v>317341</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1197529832069186</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1068441806337643</v>
+        <v>0.1062418276779153</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1335341470918916</v>
+        <v>0.1345142111266728</v>
       </c>
     </row>
     <row r="39">
@@ -3564,19 +3564,19 @@
         <v>13143</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7479</v>
+        <v>7163</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21045</v>
+        <v>20776</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1661388277219795</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09453671064314963</v>
+        <v>0.09054585600613665</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2660270382711842</v>
+        <v>0.2626289578722333</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -3585,19 +3585,19 @@
         <v>18835</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12279</v>
+        <v>11865</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27684</v>
+        <v>26754</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.205051340589195</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1336824907694724</v>
+        <v>0.1291687565271221</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3013842100963985</v>
+        <v>0.2912626487527946</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -3606,19 +3606,19 @@
         <v>31978</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23179</v>
+        <v>23294</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44660</v>
+        <v>43607</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1870455773965098</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1355808947936852</v>
+        <v>0.1362503307243265</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2612259679120824</v>
+        <v>0.2550663464084337</v>
       </c>
     </row>
     <row r="5">
@@ -3635,19 +3635,19 @@
         <v>12538</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7122</v>
+        <v>7266</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20259</v>
+        <v>19843</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.158484030868228</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09002393847940428</v>
+        <v>0.09185230770084925</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2560843714094717</v>
+        <v>0.2508341915391245</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -3656,19 +3656,19 @@
         <v>15556</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8876</v>
+        <v>9390</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23634</v>
+        <v>23540</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1693525034599309</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09662991949040077</v>
+        <v>0.1022236702372834</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2573008876956446</v>
+        <v>0.2562706116844245</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -3677,19 +3677,19 @@
         <v>28093</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19965</v>
+        <v>20350</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39327</v>
+        <v>38840</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1643233976702282</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1167801605355838</v>
+        <v>0.1190335310993703</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2300292959156133</v>
+        <v>0.2271821346250096</v>
       </c>
     </row>
     <row r="6">
@@ -3706,19 +3706,19 @@
         <v>24634</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17263</v>
+        <v>17001</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33721</v>
+        <v>33956</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3113943571451926</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2182140412551349</v>
+        <v>0.2149061511010763</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4262613925273569</v>
+        <v>0.4292340045149372</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -3727,19 +3727,19 @@
         <v>33197</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24746</v>
+        <v>24599</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>42541</v>
+        <v>42895</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3614065475731</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2693989954432554</v>
+        <v>0.2678077380392914</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.463137506139588</v>
+        <v>0.4669834223699285</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>58</v>
@@ -3748,19 +3748,19 @@
         <v>57831</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46767</v>
+        <v>45279</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>70156</v>
+        <v>71659</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3382646944456688</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2735504997439113</v>
+        <v>0.2648467494772888</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4103570751797596</v>
+        <v>0.4191493170027275</v>
       </c>
     </row>
     <row r="7">
@@ -3777,19 +3777,19 @@
         <v>20602</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13203</v>
+        <v>12738</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29322</v>
+        <v>29497</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2604299371331</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1668911776003882</v>
+        <v>0.1610194231361357</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3706544646306453</v>
+        <v>0.3728678813377739</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -3798,19 +3798,19 @@
         <v>15751</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9610</v>
+        <v>9461</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23847</v>
+        <v>23975</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1714776536284822</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1046173268101413</v>
+        <v>0.1029973320542072</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2596115745757375</v>
+        <v>0.2610109962740291</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -3819,19 +3819,19 @@
         <v>36353</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26361</v>
+        <v>26390</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48110</v>
+        <v>46392</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2126380319802533</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1541906243657306</v>
+        <v>0.1543593834424348</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2814058005506532</v>
+        <v>0.2713526176904286</v>
       </c>
     </row>
     <row r="8">
@@ -3848,19 +3848,19 @@
         <v>8192</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3451</v>
+        <v>3777</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14753</v>
+        <v>15997</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1035528471314999</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04362560876528934</v>
+        <v>0.04774865574264771</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.186491932264801</v>
+        <v>0.2022088474456421</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -3869,19 +3869,19 @@
         <v>8516</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4021</v>
+        <v>3988</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15679</v>
+        <v>16531</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09271195474929181</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04377881155537521</v>
+        <v>0.04341784377630308</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1706925425781691</v>
+        <v>0.1799703543431831</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -3890,19 +3890,19 @@
         <v>16708</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9744</v>
+        <v>9789</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25902</v>
+        <v>25629</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09772829850733994</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05699504453022556</v>
+        <v>0.057256831442009</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1515065318192717</v>
+        <v>0.1499112742474168</v>
       </c>
     </row>
     <row r="9">
@@ -3994,19 +3994,19 @@
         <v>50523</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38790</v>
+        <v>39215</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66572</v>
+        <v>67167</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1467901393155029</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1127000854077249</v>
+        <v>0.1139346385318209</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1934190396754825</v>
+        <v>0.1951467571013625</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -4015,19 +4015,19 @@
         <v>41539</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31300</v>
+        <v>31584</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54389</v>
+        <v>55641</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1517583827797095</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1143532542015029</v>
+        <v>0.1153896344743275</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1987073541891891</v>
+        <v>0.2032805525291419</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>88</v>
@@ -4036,19 +4036,19 @@
         <v>92062</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>75952</v>
+        <v>74905</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>110587</v>
+        <v>111614</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1489909575871933</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1229193690692293</v>
+        <v>0.1212246680371859</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1789713505640194</v>
+        <v>0.1806342964060929</v>
       </c>
     </row>
     <row r="11">
@@ -4065,19 +4065,19 @@
         <v>65736</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>51546</v>
+        <v>51470</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>80745</v>
+        <v>81615</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.190989080923702</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.149761949876522</v>
+        <v>0.1495424713460951</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2345964814627306</v>
+        <v>0.2371267213045704</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>58</v>
@@ -4086,19 +4086,19 @@
         <v>56105</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>44258</v>
+        <v>44017</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>69514</v>
+        <v>69862</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2049754489439063</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1616948349361125</v>
+        <v>0.1608117281949624</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2539641299728022</v>
+        <v>0.2552345703284739</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>121</v>
@@ -4107,19 +4107,19 @@
         <v>121841</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>103176</v>
+        <v>102090</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>143193</v>
+        <v>141795</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1971847222032035</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1669773394004834</v>
+        <v>0.1652195701551104</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2317408606369875</v>
+        <v>0.2294786884384191</v>
       </c>
     </row>
     <row r="12">
@@ -4136,19 +4136,19 @@
         <v>111273</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>93170</v>
+        <v>93486</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>128265</v>
+        <v>129839</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3232949031870753</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2706976421595665</v>
+        <v>0.2716167736861848</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3726640332718873</v>
+        <v>0.3772372824403621</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>99</v>
@@ -4157,19 +4157,19 @@
         <v>95005</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>80569</v>
+        <v>81338</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>111070</v>
+        <v>110935</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3470948238707353</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2943521941921011</v>
+        <v>0.2971632467890839</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4057855806139844</v>
+        <v>0.4052913325283446</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>206</v>
@@ -4178,19 +4178,19 @@
         <v>206279</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>184471</v>
+        <v>185910</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>230272</v>
+        <v>230235</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.333837723941079</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2985439595071012</v>
+        <v>0.3008723781601561</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3726674873138204</v>
+        <v>0.3726068328998017</v>
       </c>
     </row>
     <row r="13">
@@ -4207,19 +4207,19 @@
         <v>77559</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63267</v>
+        <v>63241</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>93571</v>
+        <v>94622</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2253400888258398</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.183816924958189</v>
+        <v>0.1837399111185973</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2718627405075044</v>
+        <v>0.2749148595950268</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -4228,19 +4228,19 @@
         <v>57503</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45925</v>
+        <v>44886</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71568</v>
+        <v>71379</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2100845330629438</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1677815739128002</v>
+        <v>0.1639863812212999</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2614682504628997</v>
+        <v>0.2607770505652152</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>135</v>
@@ -4249,19 +4249,19 @@
         <v>135062</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>115029</v>
+        <v>114847</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>156459</v>
+        <v>156657</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2185822263922333</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1861613661186229</v>
+        <v>0.1858659837623879</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2532100966703842</v>
+        <v>0.253531174469057</v>
       </c>
     </row>
     <row r="14">
@@ -4278,19 +4278,19 @@
         <v>39095</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>28175</v>
+        <v>29078</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52374</v>
+        <v>54819</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1135857877478799</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08185915578762738</v>
+        <v>0.08448408226488795</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1521695725231881</v>
+        <v>0.159271566753653</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -4299,19 +4299,19 @@
         <v>23563</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15879</v>
+        <v>16037</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33349</v>
+        <v>34881</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08608681134270516</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05801149364237692</v>
+        <v>0.05858909210358961</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1218388382517431</v>
+        <v>0.1274363445889196</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>62</v>
@@ -4320,19 +4320,19 @@
         <v>62658</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>47836</v>
+        <v>49128</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>78685</v>
+        <v>77643</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.101404369876291</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07741706442521909</v>
+        <v>0.07950827132763627</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1273419054558996</v>
+        <v>0.1256561439010569</v>
       </c>
     </row>
     <row r="15">
@@ -4424,19 +4424,19 @@
         <v>66345</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53196</v>
+        <v>51384</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>83693</v>
+        <v>82455</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.144357304456403</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1157461926427064</v>
+        <v>0.1118047626580107</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1821037005034511</v>
+        <v>0.1794096805960159</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -4445,19 +4445,19 @@
         <v>60154</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>47152</v>
+        <v>46962</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>74975</v>
+        <v>74527</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1895118725164325</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1485512814627811</v>
+        <v>0.1479531144533647</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2362066535602726</v>
+        <v>0.2347936643107192</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>123</v>
@@ -4466,19 +4466,19 @@
         <v>126498</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>106921</v>
+        <v>107349</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>147654</v>
+        <v>149583</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1628034446809218</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.137607196465426</v>
+        <v>0.13815868499197</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1900309217616589</v>
+        <v>0.1925131968796625</v>
       </c>
     </row>
     <row r="17">
@@ -4495,19 +4495,19 @@
         <v>82469</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>67162</v>
+        <v>65523</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>101039</v>
+        <v>100002</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1794409491306107</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1461341873588344</v>
+        <v>0.142568124214948</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2198479866222119</v>
+        <v>0.2175912059787538</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -4516,19 +4516,19 @@
         <v>49297</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>37949</v>
+        <v>37007</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>63891</v>
+        <v>62585</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1553079843962347</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1195578894725345</v>
+        <v>0.1165892037847368</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2012845136987196</v>
+        <v>0.1971728613913453</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>129</v>
@@ -4537,19 +4537,19 @@
         <v>131766</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>110897</v>
+        <v>111241</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>155014</v>
+        <v>156125</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1695823662529744</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1427250285114791</v>
+        <v>0.1431677012690123</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1995035478270052</v>
+        <v>0.2009329330786745</v>
       </c>
     </row>
     <row r="18">
@@ -4566,19 +4566,19 @@
         <v>155476</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>136160</v>
+        <v>136502</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>176956</v>
+        <v>175581</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.338293358314824</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2962662263870757</v>
+        <v>0.2970085357257295</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3850312608694421</v>
+        <v>0.3820392242109339</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>103</v>
@@ -4587,19 +4587,19 @@
         <v>99999</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>83744</v>
+        <v>85660</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>116361</v>
+        <v>116317</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3150441026686494</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2638313620624911</v>
+        <v>0.2698674539848944</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3665912598481998</v>
+        <v>0.3664509860222833</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>255</v>
@@ -4608,19 +4608,19 @@
         <v>255475</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>232024</v>
+        <v>229466</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>283950</v>
+        <v>284255</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.328795780368892</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2986144394625139</v>
+        <v>0.2953231322784708</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3654438117180202</v>
+        <v>0.3658359139716198</v>
       </c>
     </row>
     <row r="19">
@@ -4637,19 +4637,19 @@
         <v>110517</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>92913</v>
+        <v>92580</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>129355</v>
+        <v>129432</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2404696230581368</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2021650417518381</v>
+        <v>0.201440920335044</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2814589801740354</v>
+        <v>0.2816253105864735</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>67</v>
@@ -4658,19 +4658,19 @@
         <v>69623</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>54806</v>
+        <v>57316</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84949</v>
+        <v>86831</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2193433944102479</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1726631672074067</v>
+        <v>0.1805717871147959</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2676269275164669</v>
+        <v>0.2735586508831033</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>168</v>
@@ -4679,19 +4679,19 @@
         <v>180139</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>156998</v>
+        <v>156597</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>202816</v>
+        <v>205060</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2318393251105154</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.202056511600574</v>
+        <v>0.2015408269792721</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2610247545360753</v>
+        <v>0.2639120809443696</v>
       </c>
     </row>
     <row r="20">
@@ -4708,19 +4708,19 @@
         <v>44782</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33786</v>
+        <v>32632</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>59713</v>
+        <v>58399</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09743876504002554</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07351458976452011</v>
+        <v>0.07100214084242827</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1299279933714992</v>
+        <v>0.1270680462642183</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>38</v>
@@ -4729,19 +4729,19 @@
         <v>38341</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28085</v>
+        <v>28243</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51029</v>
+        <v>50336</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1207926460084356</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08847978528097426</v>
+        <v>0.08897807084073051</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1607651541449896</v>
+        <v>0.1585799778497332</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>81</v>
@@ -4750,19 +4750,19 @@
         <v>83123</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>66997</v>
+        <v>67882</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>101961</v>
+        <v>101601</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1069790835866965</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08622550404013446</v>
+        <v>0.08736455898385355</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1312231838658431</v>
+        <v>0.1307600196505655</v>
       </c>
     </row>
     <row r="21">
@@ -4854,19 +4854,19 @@
         <v>67410</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52049</v>
+        <v>52755</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>84456</v>
+        <v>85022</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1833152912731212</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1415430984280361</v>
+        <v>0.1434612825634825</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2296702729038695</v>
+        <v>0.2312097456056234</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>50</v>
@@ -4875,19 +4875,19 @@
         <v>54137</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40184</v>
+        <v>41332</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>68634</v>
+        <v>67954</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2226762359272122</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1652875190088931</v>
+        <v>0.1700066732764194</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2823085027103352</v>
+        <v>0.2795100400943891</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>108</v>
@@ -4896,19 +4896,19 @@
         <v>121547</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>102601</v>
+        <v>102076</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>141154</v>
+        <v>143611</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1989810274814231</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1679652427820451</v>
+        <v>0.1671066957826702</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2310787506151029</v>
+        <v>0.2351024398210407</v>
       </c>
     </row>
     <row r="23">
@@ -4925,19 +4925,19 @@
         <v>66237</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52780</v>
+        <v>52579</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>82496</v>
+        <v>82261</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1801255858163933</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1435298472983869</v>
+        <v>0.1429838831031761</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2243404919299387</v>
+        <v>0.223701017667811</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>28</v>
@@ -4946,19 +4946,19 @@
         <v>30677</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>20473</v>
+        <v>20376</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>42124</v>
+        <v>43006</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1261821035227566</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0842090770567086</v>
+        <v>0.08381164399029788</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1732650198137421</v>
+        <v>0.1768948707883478</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>89</v>
@@ -4967,19 +4967,19 @@
         <v>96914</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>80082</v>
+        <v>79691</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>117816</v>
+        <v>116008</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1586559699015354</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1310995080340862</v>
+        <v>0.1304598030125473</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1928733173508877</v>
+        <v>0.1899134074172507</v>
       </c>
     </row>
     <row r="24">
@@ -4996,19 +4996,19 @@
         <v>134794</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>116873</v>
+        <v>115235</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>155057</v>
+        <v>155252</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3665577435546716</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3178248337971614</v>
+        <v>0.3133691099932653</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4216626625153077</v>
+        <v>0.4221918739857705</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>75</v>
@@ -5017,19 +5017,19 @@
         <v>81857</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>65052</v>
+        <v>67309</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>95681</v>
+        <v>96763</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3366981185336539</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2675751329448158</v>
+        <v>0.2768592361893935</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3935583846903177</v>
+        <v>0.3980073040510971</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>197</v>
@@ -5038,19 +5038,19 @@
         <v>216651</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>194309</v>
+        <v>193306</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>243144</v>
+        <v>241433</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3546735519284562</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3180981977059417</v>
+        <v>0.3164567095888817</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3980453729728938</v>
+        <v>0.3952438599202529</v>
       </c>
     </row>
     <row r="25">
@@ -5067,19 +5067,19 @@
         <v>65729</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>52312</v>
+        <v>51597</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>82795</v>
+        <v>82475</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1787430156285134</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1422584207504731</v>
+        <v>0.1403127126287065</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2251532099622978</v>
+        <v>0.2242833085670992</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>52</v>
@@ -5088,19 +5088,19 @@
         <v>57002</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44228</v>
+        <v>42914</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>72195</v>
+        <v>70467</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2344641659239919</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.181920712240266</v>
+        <v>0.1765139812187725</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2969526016222194</v>
+        <v>0.2898472445817021</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>112</v>
@@ -5109,19 +5109,19 @@
         <v>122731</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>103006</v>
+        <v>103712</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>145741</v>
+        <v>143768</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2009201470318213</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1686280988850863</v>
+        <v>0.169783986294544</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2385886723863547</v>
+        <v>0.235358898428596</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5138,19 @@
         <v>33558</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>23276</v>
+        <v>23317</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>47366</v>
+        <v>46732</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09125836372730049</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06329704960773838</v>
+        <v>0.06340842796281095</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1288066003033892</v>
+        <v>0.12708222436525</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -5159,19 +5159,19 @@
         <v>19444</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10985</v>
+        <v>12795</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29191</v>
+        <v>28959</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07997937609238553</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04518462025960324</v>
+        <v>0.05262955813624745</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1200672348989901</v>
+        <v>0.1191137815193842</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>48</v>
@@ -5180,19 +5180,19 @@
         <v>53003</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>39348</v>
+        <v>40087</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>68482</v>
+        <v>67923</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08676930365676401</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06441565299852209</v>
+        <v>0.06562466535180302</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1121108322440442</v>
+        <v>0.1111950747014133</v>
       </c>
     </row>
     <row r="27">
@@ -5284,19 +5284,19 @@
         <v>34456</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>23840</v>
+        <v>24191</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>46470</v>
+        <v>48087</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2079079792199086</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1438503052330838</v>
+        <v>0.1459722053972974</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2804039467469304</v>
+        <v>0.2901583332989507</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>23</v>
@@ -5305,19 +5305,19 @@
         <v>27647</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>18517</v>
+        <v>18628</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>38231</v>
+        <v>39057</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2611157679157575</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1748927959051274</v>
+        <v>0.1759392242700461</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3610793627984645</v>
+        <v>0.3688857670195947</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>53</v>
@@ -5326,19 +5326,19 @@
         <v>62102</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>47730</v>
+        <v>48109</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>77502</v>
+        <v>77589</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2286497689836678</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1757331617221961</v>
+        <v>0.1771280382086278</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2853498386309943</v>
+        <v>0.2856679035693265</v>
       </c>
     </row>
     <row r="29">
@@ -5355,19 +5355,19 @@
         <v>28065</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18794</v>
+        <v>18882</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>40187</v>
+        <v>40347</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.169345069584701</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1134050499529188</v>
+        <v>0.1139363614779563</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2424899983614328</v>
+        <v>0.2434580574015685</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>19</v>
@@ -5376,19 +5376,19 @@
         <v>21913</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>13802</v>
+        <v>13819</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>32480</v>
+        <v>32842</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2069666007470056</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1303530513326628</v>
+        <v>0.130516647200362</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3067649729247038</v>
+        <v>0.3101864605607832</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>42</v>
@@ -5397,19 +5397,19 @@
         <v>49978</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>37592</v>
+        <v>38331</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>65676</v>
+        <v>65653</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1840109278939022</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1384075023284018</v>
+        <v>0.1411293965105468</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2418064351317009</v>
+        <v>0.2417205219019095</v>
       </c>
     </row>
     <row r="30">
@@ -5426,19 +5426,19 @@
         <v>49399</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>37461</v>
+        <v>37111</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>62142</v>
+        <v>61609</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2980781857381639</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2260421915631296</v>
+        <v>0.2239311706280534</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3749697957196277</v>
+        <v>0.3717522680371282</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>29</v>
@@ -5447,19 +5447,19 @@
         <v>33574</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>23842</v>
+        <v>23273</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>44553</v>
+        <v>44051</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3170953718206479</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2251809243705163</v>
+        <v>0.2198092619599397</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4207915135202967</v>
+        <v>0.4160520193296915</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>74</v>
@@ -5468,19 +5468,19 @@
         <v>82973</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>66513</v>
+        <v>67399</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>99271</v>
+        <v>99260</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3054915830111828</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2448899170245315</v>
+        <v>0.2481505947700144</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3654984818585454</v>
+        <v>0.3654587493628626</v>
       </c>
     </row>
     <row r="31">
@@ -5497,19 +5497,19 @@
         <v>32569</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>22654</v>
+        <v>22484</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>43407</v>
+        <v>44297</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1965242385229913</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1366937589272738</v>
+        <v>0.1356694484400192</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.261921183212404</v>
+        <v>0.2672913853908211</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>14</v>
@@ -5518,19 +5518,19 @@
         <v>17039</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10003</v>
+        <v>9944</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>26950</v>
+        <v>27169</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1609243684707191</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0944784372259356</v>
+        <v>0.0939162275110742</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2545353086573315</v>
+        <v>0.2566013416448557</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>43</v>
@@ -5539,19 +5539,19 @@
         <v>49608</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>37682</v>
+        <v>37083</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>64638</v>
+        <v>64391</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1826464766700732</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1387389927824393</v>
+        <v>0.1365327004204097</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2379835894812984</v>
+        <v>0.237075611147246</v>
       </c>
     </row>
     <row r="32">
@@ -5568,19 +5568,19 @@
         <v>21237</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>13581</v>
+        <v>13228</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>33191</v>
+        <v>31640</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1281445269342352</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0819472375140288</v>
+        <v>0.07981701665985692</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2002746228755066</v>
+        <v>0.1909201539822591</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -5589,19 +5589,19 @@
         <v>5707</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2224</v>
+        <v>2206</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11938</v>
+        <v>12411</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05389789104586999</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02100628624447159</v>
+        <v>0.02083354094915323</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1127483352466987</v>
+        <v>0.1172147247145432</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>24</v>
@@ -5610,19 +5610,19 @@
         <v>26944</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>18189</v>
+        <v>17829</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>40339</v>
+        <v>38461</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09920124344117397</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06696689863057365</v>
+        <v>0.06564320440760144</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1485200847400822</v>
+        <v>0.1416056068052493</v>
       </c>
     </row>
     <row r="33">
@@ -5714,19 +5714,19 @@
         <v>231877</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>204178</v>
+        <v>203142</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>264011</v>
+        <v>259881</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1637159969347149</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1441592188926724</v>
+        <v>0.1434280426678312</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1864038083341645</v>
+        <v>0.1834879635290947</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>195</v>
@@ -5735,19 +5735,19 @@
         <v>202311</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>177111</v>
+        <v>178845</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>229011</v>
+        <v>227042</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1960408783179033</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1716223228568156</v>
+        <v>0.1733023812806761</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2219139842231718</v>
+        <v>0.220005796654822</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>404</v>
@@ -5756,19 +5756,19 @@
         <v>434188</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>396372</v>
+        <v>396447</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>474046</v>
+        <v>476049</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1773411381764914</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1618956187281392</v>
+        <v>0.1619262960194554</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1936209095399546</v>
+        <v>0.1944391158781468</v>
       </c>
     </row>
     <row r="35">
@@ -5785,19 +5785,19 @@
         <v>255044</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>226028</v>
+        <v>224683</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>284888</v>
+        <v>285401</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1800731570620527</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1595861792960646</v>
+        <v>0.1586364022959</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2011444835171799</v>
+        <v>0.2015063921979406</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>172</v>
@@ -5806,19 +5806,19 @@
         <v>173548</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>152728</v>
+        <v>149579</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>200184</v>
+        <v>197677</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1681700114328585</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1479945270154294</v>
+        <v>0.1449430227301366</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1939805325433004</v>
+        <v>0.1915512375501022</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>409</v>
@@ -5827,19 +5827,19 @@
         <v>428593</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>387354</v>
+        <v>392485</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>465740</v>
+        <v>467723</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1750559061556486</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1582124113392527</v>
+        <v>0.1603078230194768</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1902285439232241</v>
+        <v>0.1910384442573141</v>
       </c>
     </row>
     <row r="36">
@@ -5856,19 +5856,19 @@
         <v>475576</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>441510</v>
+        <v>442158</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>514968</v>
+        <v>517607</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3357789076133201</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3117264246921225</v>
+        <v>0.3121843210828368</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3635915534661086</v>
+        <v>0.365454459007458</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>340</v>
@@ -5877,19 +5877,19 @@
         <v>343633</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>314818</v>
+        <v>313812</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>377119</v>
+        <v>372314</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3329834617943147</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3050612312652382</v>
+        <v>0.3040867047903057</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.365431958003904</v>
+        <v>0.3607754583568744</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>790</v>
@@ -5898,19 +5898,19 @@
         <v>819209</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>773062</v>
+        <v>772088</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>868095</v>
+        <v>866703</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3346006095813437</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3157523191482673</v>
+        <v>0.3153546294038665</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3545679962765459</v>
+        <v>0.3539994961835806</v>
       </c>
     </row>
     <row r="37">
@@ -5927,19 +5927,19 @@
         <v>306976</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>274901</v>
+        <v>276962</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>340099</v>
+        <v>341707</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2167395107041246</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1940929048184969</v>
+        <v>0.1955479613335865</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2401255124686613</v>
+        <v>0.241261215674916</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>208</v>
@@ -5948,19 +5948,19 @@
         <v>216918</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>192019</v>
+        <v>190375</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>245123</v>
+        <v>243686</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2101957463130285</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1860685901787947</v>
+        <v>0.1844749862284905</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2375268603338174</v>
+        <v>0.2361335751837788</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>492</v>
@@ -5969,19 +5969,19 @@
         <v>523894</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>482431</v>
+        <v>482990</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>569550</v>
+        <v>565542</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2139812727689357</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1970460605667629</v>
+        <v>0.1972742430980256</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2326289458647547</v>
+        <v>0.2309920289204423</v>
       </c>
     </row>
     <row r="38">
@@ -5998,19 +5998,19 @@
         <v>146863</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>124468</v>
+        <v>124494</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>172969</v>
+        <v>170184</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1036924276857878</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.08788035890290266</v>
+        <v>0.08789853571113092</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1221243396624207</v>
+        <v>0.1201578564676433</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>93</v>
@@ -6019,19 +6019,19 @@
         <v>95572</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>76796</v>
+        <v>78182</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>114945</v>
+        <v>115347</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.09260990214189495</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.07441581647929542</v>
+        <v>0.07575865959039262</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1113831938531421</v>
+        <v>0.1117723509290361</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>230</v>
@@ -6040,19 +6040,19 @@
         <v>242435</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>215208</v>
+        <v>213535</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>274943</v>
+        <v>273812</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.09902107331758064</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08790051162433046</v>
+        <v>0.08721695239943328</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1122986445632419</v>
+        <v>0.1118369791357797</v>
       </c>
     </row>
     <row r="39">
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9400</v>
+        <v>10322</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1014283416475395</v>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.312250165408265</v>
+        <v>0.3428686345398302</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8488</v>
+        <v>7490</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06485669799496799</v>
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3210334240160195</v>
+        <v>0.2832702229039376</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -6427,19 +6427,19 @@
         <v>4768</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1158</v>
+        <v>1141</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12842</v>
+        <v>12366</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08432737113876715</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0204848070119329</v>
+        <v>0.02018531429893169</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2271039876158093</v>
+        <v>0.2186847077972539</v>
       </c>
     </row>
     <row r="5">
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12955</v>
+        <v>14284</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09899019806247336</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4303176144831368</v>
+        <v>0.4744859516565025</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9267</v>
+        <v>8951</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1146410301432193</v>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3504787294881938</v>
+        <v>0.338536875799039</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -6498,19 +6498,19 @@
         <v>6011</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1374</v>
+        <v>1299</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15898</v>
+        <v>17691</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1063085570728912</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02429283520738984</v>
+        <v>0.02296619896856932</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2811608979710418</v>
+        <v>0.3128630598531931</v>
       </c>
     </row>
     <row r="6">
@@ -6527,19 +6527,19 @@
         <v>15509</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6433</v>
+        <v>6677</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24395</v>
+        <v>25231</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5151696966171284</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2136958425312291</v>
+        <v>0.2217970187158517</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8103201957614898</v>
+        <v>0.8380974568878211</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -6548,19 +6548,19 @@
         <v>6865</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2173</v>
+        <v>2991</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13044</v>
+        <v>13675</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2596201075532612</v>
+        <v>0.2596201075532613</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08219076922732491</v>
+        <v>0.1131331920277793</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.493314136167278</v>
+        <v>0.5171926529046408</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -6569,19 +6569,19 @@
         <v>22373</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11941</v>
+        <v>12076</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>33699</v>
+        <v>33669</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3956742200772653</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2111803916750279</v>
+        <v>0.2135606494467408</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5959694746124912</v>
+        <v>0.5954415675501019</v>
       </c>
     </row>
     <row r="7">
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8405</v>
+        <v>8773</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06133544768718187</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2792051730165766</v>
+        <v>0.2914172036641812</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -6619,19 +6619,19 @@
         <v>10999</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5135</v>
+        <v>5547</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18120</v>
+        <v>18121</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4159685191169078</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1942024759653589</v>
+        <v>0.2098000570150146</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6852842945243798</v>
+        <v>0.6853517391824946</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -6640,19 +6640,19 @@
         <v>12845</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5416</v>
+        <v>6146</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23542</v>
+        <v>25258</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2271625500610369</v>
+        <v>0.2271625500610368</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09578792205571589</v>
+        <v>0.1086850748856473</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4163423349209546</v>
+        <v>0.446693436001362</v>
       </c>
     </row>
     <row r="8">
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18331</v>
+        <v>18074</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2230763159856767</v>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6089166265340905</v>
+        <v>0.6003590084289442</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10735</v>
+        <v>10547</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1449136451916437</v>
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4059869807926453</v>
+        <v>0.3988902071082683</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -6711,19 +6711,19 @@
         <v>10547</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2718</v>
+        <v>2988</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22968</v>
+        <v>24373</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1865273016500397</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04806449005619291</v>
+        <v>0.05284373566008189</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4061921601703495</v>
+        <v>0.4310436192796392</v>
       </c>
     </row>
     <row r="9">
@@ -6815,19 +6815,19 @@
         <v>32113</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21404</v>
+        <v>19985</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48090</v>
+        <v>47749</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2708997888438467</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1805612760858601</v>
+        <v>0.1685925314537572</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4056805467684176</v>
+        <v>0.4028046392948832</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -6836,19 +6836,19 @@
         <v>28322</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20087</v>
+        <v>19047</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38792</v>
+        <v>39240</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3026504213411157</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2146541922281456</v>
+        <v>0.203540341386868</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4145325094584727</v>
+        <v>0.419320101358633</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -6857,19 +6857,19 @@
         <v>60434</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45411</v>
+        <v>46506</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78037</v>
+        <v>79776</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2849069704264527</v>
+        <v>0.2849069704264526</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2140831367686648</v>
+        <v>0.2192434068463827</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3678928152342</v>
+        <v>0.3760874296432572</v>
       </c>
     </row>
     <row r="11">
@@ -6886,19 +6886,19 @@
         <v>10305</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3971</v>
+        <v>3598</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24587</v>
+        <v>23488</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.08693439201391434</v>
+        <v>0.08693439201391436</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03350070530783861</v>
+        <v>0.03035107604714243</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2074093848059039</v>
+        <v>0.1981431432360913</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -6907,19 +6907,19 @@
         <v>13371</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7582</v>
+        <v>7326</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21070</v>
+        <v>21973</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1428898891406581</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08102370552021941</v>
+        <v>0.07829190787162334</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2251541058944269</v>
+        <v>0.2348097517895193</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>18</v>
@@ -6928,19 +6928,19 @@
         <v>23677</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>14413</v>
+        <v>14895</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>38991</v>
+        <v>39052</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1116198469845106</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06794596956318591</v>
+        <v>0.07021770788515869</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1838157969510746</v>
+        <v>0.1841022741680879</v>
       </c>
     </row>
     <row r="12">
@@ -6957,19 +6957,19 @@
         <v>43132</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30972</v>
+        <v>30324</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>58143</v>
+        <v>57716</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3638544869935345</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2612788510624657</v>
+        <v>0.2558070443626526</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4904907500445643</v>
+        <v>0.4868897514077098</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>32</v>
@@ -6978,19 +6978,19 @@
         <v>30949</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>21798</v>
+        <v>22195</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>39770</v>
+        <v>41193</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3307286708880412</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2329371227337176</v>
+        <v>0.2371773611430644</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4249898453001466</v>
+        <v>0.4401963605916936</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>58</v>
@@ -6999,19 +6999,19 @@
         <v>74081</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>57532</v>
+        <v>57306</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>92267</v>
+        <v>91331</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.3492406262680335</v>
+        <v>0.3492406262680334</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2712220921752505</v>
+        <v>0.2701593464385028</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4349731513586025</v>
+        <v>0.4305628803471349</v>
       </c>
     </row>
     <row r="13">
@@ -7028,19 +7028,19 @@
         <v>28244</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17987</v>
+        <v>18411</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42100</v>
+        <v>42128</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2382643854769308</v>
+        <v>0.2382643854769309</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1517388454601917</v>
+        <v>0.1553175278702315</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.35515215103769</v>
+        <v>0.3553913121634834</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -7049,19 +7049,19 @@
         <v>12670</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7185</v>
+        <v>6641</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20432</v>
+        <v>19976</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1353888203875378</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07678320167065802</v>
+        <v>0.07096527175620086</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2183398138712681</v>
+        <v>0.2134680823839509</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -7070,19 +7070,19 @@
         <v>40914</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27669</v>
+        <v>27679</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56989</v>
+        <v>56710</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1928795661117019</v>
+        <v>0.1928795661117018</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1304422354178396</v>
+        <v>0.130488129496659</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2686624562166846</v>
+        <v>0.2673495361833587</v>
       </c>
     </row>
     <row r="14">
@@ -7099,19 +7099,19 @@
         <v>4747</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1277</v>
+        <v>1263</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12732</v>
+        <v>12729</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0400469466717735</v>
+        <v>0.04004694667177351</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01077477990491042</v>
+        <v>0.01065370116413721</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1074053047706565</v>
+        <v>0.1073838212833541</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -7120,19 +7120,19 @@
         <v>8267</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3559</v>
+        <v>3745</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16212</v>
+        <v>16261</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.08834219824264711</v>
+        <v>0.08834219824264714</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03803623118500833</v>
+        <v>0.04002312477621308</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1732438550628214</v>
+        <v>0.1737662795807838</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -7141,19 +7141,19 @@
         <v>13014</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6496</v>
+        <v>6337</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>23135</v>
+        <v>23145</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.06135299020930138</v>
+        <v>0.06135299020930136</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03062614209934053</v>
+        <v>0.02987428119704585</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1090646786648127</v>
+        <v>0.1091139025690115</v>
       </c>
     </row>
     <row r="15">
@@ -7245,19 +7245,19 @@
         <v>31234</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21974</v>
+        <v>21935</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44016</v>
+        <v>44038</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2580460610632669</v>
+        <v>0.2580460610632668</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1815432637008569</v>
+        <v>0.1812164703004131</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.36364606755953</v>
+        <v>0.3638229585304043</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -7266,19 +7266,19 @@
         <v>27401</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19132</v>
+        <v>19977</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35280</v>
+        <v>35661</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2612461333617407</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1824066475885036</v>
+        <v>0.1904644845489373</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3363718932582014</v>
+        <v>0.3400031821054191</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>60</v>
@@ -7287,19 +7287,19 @@
         <v>58635</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46804</v>
+        <v>46367</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>74282</v>
+        <v>72268</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2595316750920837</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2071658692466173</v>
+        <v>0.2052284935023059</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3287871233579386</v>
+        <v>0.3198729956327924</v>
       </c>
     </row>
     <row r="17">
@@ -7316,19 +7316,19 @@
         <v>18936</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11312</v>
+        <v>11051</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30011</v>
+        <v>30494</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1564445892906314</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09345497538296085</v>
+        <v>0.09130202466408212</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.247935224694659</v>
+        <v>0.2519304683380014</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -7337,19 +7337,19 @@
         <v>12678</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7930</v>
+        <v>7673</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19161</v>
+        <v>18911</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1208786936533624</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07560824453248348</v>
+        <v>0.07315230302894896</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1826862774850528</v>
+        <v>0.1803005124232332</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>33</v>
@@ -7358,19 +7358,19 @@
         <v>31615</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21915</v>
+        <v>21176</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43197</v>
+        <v>43913</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1399333393631338</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09699969879421372</v>
+        <v>0.09372741097259223</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1911976527150034</v>
+        <v>0.1943698321018364</v>
       </c>
     </row>
     <row r="18">
@@ -7387,19 +7387,19 @@
         <v>35731</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26682</v>
+        <v>26363</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>47193</v>
+        <v>48010</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2951927570223448</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2204335899142654</v>
+        <v>0.2177989166034465</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3898900536792824</v>
+        <v>0.3966408501635268</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>46</v>
@@ -7408,19 +7408,19 @@
         <v>33575</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>25494</v>
+        <v>26152</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>41292</v>
+        <v>41659</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3201171630670419</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2430645131997839</v>
+        <v>0.2493391148711607</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3936924435020954</v>
+        <v>0.3971837929874287</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>79</v>
@@ -7429,19 +7429,19 @@
         <v>69306</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>56434</v>
+        <v>58019</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>83128</v>
+        <v>84075</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3067637603704845</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2497868865781366</v>
+        <v>0.2568053017223056</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3679439440868301</v>
+        <v>0.3721349517989824</v>
       </c>
     </row>
     <row r="19">
@@ -7458,19 +7458,19 @@
         <v>25553</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16481</v>
+        <v>16960</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35289</v>
+        <v>35893</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2111057672746962</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1361578643639801</v>
+        <v>0.1401192836224222</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2915408165477927</v>
+        <v>0.2965333990031249</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -7479,19 +7479,19 @@
         <v>22530</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16251</v>
+        <v>16296</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30341</v>
+        <v>30138</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.214811007702799</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1549417310716171</v>
+        <v>0.1553693151089063</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2892817822694859</v>
+        <v>0.2873452035052091</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -7500,19 +7500,19 @@
         <v>48083</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>36736</v>
+        <v>36966</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>60897</v>
+        <v>60599</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2128259025237511</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1625997454092707</v>
+        <v>0.1636185025845462</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2695445696040858</v>
+        <v>0.2682229897292022</v>
       </c>
     </row>
     <row r="20">
@@ -7529,19 +7529,19 @@
         <v>9588</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4102</v>
+        <v>4088</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18722</v>
+        <v>18861</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07921082534906078</v>
+        <v>0.07921082534906075</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03388614863964921</v>
+        <v>0.03376942967657729</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1546764965372504</v>
+        <v>0.1558222279947223</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -7550,19 +7550,19 @@
         <v>8700</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4619</v>
+        <v>4668</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14063</v>
+        <v>15028</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08294700221505595</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04403601378063444</v>
+        <v>0.04450661032703531</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1340755614035026</v>
+        <v>0.1432812121814353</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -7571,19 +7571,19 @@
         <v>18288</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10886</v>
+        <v>10775</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>28997</v>
+        <v>28364</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08094532265054692</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04818454302502159</v>
+        <v>0.04769314032035612</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1283488241786722</v>
+        <v>0.1255460495976651</v>
       </c>
     </row>
     <row r="21">
@@ -7675,19 +7675,19 @@
         <v>45500</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34336</v>
+        <v>34527</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56355</v>
+        <v>57123</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.331703198762789</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2503157557557739</v>
+        <v>0.2517026874099105</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4108314514336137</v>
+        <v>0.4164348317611214</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>50</v>
@@ -7696,19 +7696,19 @@
         <v>34268</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27137</v>
+        <v>26673</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42312</v>
+        <v>42730</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2822304145777282</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2234980165924297</v>
+        <v>0.219673904393002</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3484766539276644</v>
+        <v>0.3519170110889189</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>91</v>
@@ -7717,19 +7717,19 @@
         <v>79769</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>65345</v>
+        <v>65691</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>94872</v>
+        <v>93770</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3084735698150037</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2526966487401474</v>
+        <v>0.254034464640466</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3668778017371178</v>
+        <v>0.3626164290457815</v>
       </c>
     </row>
     <row r="23">
@@ -7746,19 +7746,19 @@
         <v>20724</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13536</v>
+        <v>12923</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>30060</v>
+        <v>30563</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1510831846281267</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09868055858044099</v>
+        <v>0.09420729425565726</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2191400859051547</v>
+        <v>0.2228064176458947</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>33</v>
@@ -7767,19 +7767,19 @@
         <v>20808</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14703</v>
+        <v>14906</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28112</v>
+        <v>28306</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.171373187053619</v>
+        <v>0.1713731870536191</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1210910640570935</v>
+        <v>0.1227672467002378</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2315304332883781</v>
+        <v>0.2331266950647023</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>52</v>
@@ -7788,19 +7788,19 @@
         <v>41533</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30671</v>
+        <v>32367</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>53754</v>
+        <v>53669</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.1606102253123697</v>
+        <v>0.1606102253123698</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1186061015234927</v>
+        <v>0.1251670806492647</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2078737624722537</v>
+        <v>0.2075427084831644</v>
       </c>
     </row>
     <row r="24">
@@ -7817,19 +7817,19 @@
         <v>41518</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>31729</v>
+        <v>30633</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>52603</v>
+        <v>52812</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.302673291850363</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2313068157911035</v>
+        <v>0.2233179284293494</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3834808348155852</v>
+        <v>0.3850021636308557</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>61</v>
@@ -7838,19 +7838,19 @@
         <v>36625</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>28955</v>
+        <v>29325</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>44848</v>
+        <v>44476</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3016406514219404</v>
+        <v>0.3016406514219405</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2384673426705629</v>
+        <v>0.2415183340995222</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.369360541333784</v>
+        <v>0.3662963302436046</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>103</v>
@@ -7859,19 +7859,19 @@
         <v>78144</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>65550</v>
+        <v>65926</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>93384</v>
+        <v>91280</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3021884221511156</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2534874295840716</v>
+        <v>0.2549433550645853</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.361123105410744</v>
+        <v>0.3529886769523071</v>
       </c>
     </row>
     <row r="25">
@@ -7888,19 +7888,19 @@
         <v>23204</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14975</v>
+        <v>14610</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32902</v>
+        <v>33131</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1691569073059666</v>
+        <v>0.1691569073059665</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1091669784162972</v>
+        <v>0.1065051198871516</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2398601598318357</v>
+        <v>0.2415304945041994</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -7909,19 +7909,19 @@
         <v>20543</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14208</v>
+        <v>13893</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27536</v>
+        <v>27186</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.169190307266607</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.117013097386447</v>
+        <v>0.1144173021614289</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2267795078863805</v>
+        <v>0.2239038716320892</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>52</v>
@@ -7930,19 +7930,19 @@
         <v>43747</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33214</v>
+        <v>33222</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>55849</v>
+        <v>55090</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1691725900435632</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1284404891714432</v>
+        <v>0.1284730040869522</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2159727035139959</v>
+        <v>0.2130368607176934</v>
       </c>
     </row>
     <row r="26">
@@ -7959,19 +7959,19 @@
         <v>6225</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2735</v>
+        <v>2833</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13664</v>
+        <v>13849</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04538341745275493</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01993921133629917</v>
+        <v>0.02065276772213994</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09961310602024119</v>
+        <v>0.100964461462308</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -7980,19 +7980,19 @@
         <v>9175</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4943</v>
+        <v>5192</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14862</v>
+        <v>14803</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.07556543968010541</v>
+        <v>0.07556543968010543</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04071229238280369</v>
+        <v>0.04276264503994669</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1223987806827299</v>
+        <v>0.1219132146063518</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -8001,19 +8001,19 @@
         <v>15400</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8773</v>
+        <v>9461</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>22912</v>
+        <v>23235</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05955519267794782</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03392729552312388</v>
+        <v>0.03658547676813843</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08860445029296868</v>
+        <v>0.08985376230123374</v>
       </c>
     </row>
     <row r="27">
@@ -8105,19 +8105,19 @@
         <v>17312</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>11351</v>
+        <v>11022</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>24713</v>
+        <v>24355</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2523650628926502</v>
+        <v>0.2523650628926503</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1654780416217038</v>
+        <v>0.1606700466028148</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.360253591858044</v>
+        <v>0.3550385571252586</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -8126,19 +8126,19 @@
         <v>9526</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5883</v>
+        <v>5536</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14027</v>
+        <v>14369</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2320717246067436</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1433156504943335</v>
+        <v>0.1348722909095239</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3417154056495209</v>
+        <v>0.3500463497714158</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>34</v>
@@ -8147,19 +8147,19 @@
         <v>26838</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>19635</v>
+        <v>18527</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>35618</v>
+        <v>34912</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2447678651655535</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1790790615640229</v>
+        <v>0.1689749930056661</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3248479397882674</v>
+        <v>0.3184027010380602</v>
       </c>
     </row>
     <row r="29">
@@ -8176,19 +8176,19 @@
         <v>15638</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8821</v>
+        <v>9388</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>22999</v>
+        <v>22865</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2279682013656409</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1285937423899496</v>
+        <v>0.1368483004492377</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3352677737705348</v>
+        <v>0.3333203335276917</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -8197,19 +8197,19 @@
         <v>4939</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2324</v>
+        <v>2414</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8702</v>
+        <v>8962</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1203148814998396</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05661441511098905</v>
+        <v>0.05880158383344379</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2120047475606493</v>
+        <v>0.2183356850103732</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>25</v>
@@ -8218,19 +8218,19 @@
         <v>20577</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>13790</v>
+        <v>13678</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>29527</v>
+        <v>28115</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1876661305345011</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1257703194935658</v>
+        <v>0.1247505882938356</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.26929659967618</v>
+        <v>0.2564129363283777</v>
       </c>
     </row>
     <row r="30">
@@ -8247,19 +8247,19 @@
         <v>21575</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15271</v>
+        <v>15426</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>30583</v>
+        <v>30385</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.314520019503502</v>
+        <v>0.3145200195035021</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2226206363672189</v>
+        <v>0.2248686777366931</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4458302848320895</v>
+        <v>0.4429496239761114</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>21</v>
@@ -8268,19 +8268,19 @@
         <v>12500</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>8166</v>
+        <v>8223</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17261</v>
+        <v>17471</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3045315083371422</v>
+        <v>0.304531508337142</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1989495643682987</v>
+        <v>0.2003210896613185</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4204959616356682</v>
+        <v>0.4256125335313978</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>44</v>
@@ -8289,19 +8289,19 @@
         <v>34076</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>25810</v>
+        <v>25767</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>43885</v>
+        <v>43582</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3107806300910241</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2353964549752457</v>
+        <v>0.2350016192745941</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4002457619612922</v>
+        <v>0.3974767597292201</v>
       </c>
     </row>
     <row r="31">
@@ -8318,19 +8318,19 @@
         <v>12048</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6878</v>
+        <v>7033</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>18682</v>
+        <v>19044</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1756306111131581</v>
+        <v>0.1756306111131582</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1002685480682419</v>
+        <v>0.1025289640546758</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2723435384612701</v>
+        <v>0.2776195493767413</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>17</v>
@@ -8339,19 +8339,19 @@
         <v>11529</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7579</v>
+        <v>7564</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16577</v>
+        <v>16662</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2808577599909067</v>
+        <v>0.2808577599909066</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1846443467643122</v>
+        <v>0.1842768643494009</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.403837730740894</v>
+        <v>0.4059177665611644</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>30</v>
@@ -8360,19 +8360,19 @@
         <v>23577</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>16307</v>
+        <v>16796</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>33296</v>
+        <v>31693</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2150243986221407</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1487247272250229</v>
+        <v>0.1531819234121389</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3036639115356252</v>
+        <v>0.2890486342312812</v>
       </c>
     </row>
     <row r="32">
@@ -8392,16 +8392,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7626</v>
+        <v>6210</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02951610512504879</v>
+        <v>0.0295161051250488</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1111640748396752</v>
+        <v>0.09053268650218088</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -8410,19 +8410,19 @@
         <v>2554</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>656</v>
+        <v>677</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6173</v>
+        <v>6317</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.06222412556536815</v>
+        <v>0.06222412556536813</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01597395605246096</v>
+        <v>0.01650380458064119</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1503931480717804</v>
+        <v>0.153892163001149</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -8431,19 +8431,19 @@
         <v>4579</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1666</v>
+        <v>1855</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>9164</v>
+        <v>10916</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04176097558678062</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01519440407056412</v>
+        <v>0.01691654834601597</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08358115215987631</v>
+        <v>0.09955944107035014</v>
       </c>
     </row>
     <row r="33">
@@ -8535,19 +8535,19 @@
         <v>129213</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>108949</v>
+        <v>106682</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>152370</v>
+        <v>149729</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.2717649858489545</v>
+        <v>0.2717649858489544</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2291464027636234</v>
+        <v>0.2243771589791172</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3204713020749004</v>
+        <v>0.3149157202229335</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>125</v>
@@ -8556,19 +8556,19 @@
         <v>101232</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>85719</v>
+        <v>84145</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>117001</v>
+        <v>117051</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2613294966207186</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2212832076566193</v>
+        <v>0.2172195744888621</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3020371614144614</v>
+        <v>0.3021655088611219</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>230</v>
@@ -8577,19 +8577,19 @@
         <v>230445</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>200321</v>
+        <v>202756</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>255970</v>
+        <v>257818</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2670799016577468</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2321674638044352</v>
+        <v>0.2349895557947059</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2966638771635778</v>
+        <v>0.2988056348831876</v>
       </c>
     </row>
     <row r="35">
@@ -8606,19 +8606,19 @@
         <v>68584</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>49425</v>
+        <v>52005</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>87530</v>
+        <v>89371</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.1442489658390851</v>
+        <v>0.144248965839085</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1039518052116307</v>
+        <v>0.1093786719941406</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1840956586752772</v>
+        <v>0.1879679599971096</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>75</v>
@@ -8627,19 +8627,19 @@
         <v>54828</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>42899</v>
+        <v>43772</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>68119</v>
+        <v>68498</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.141537742576093</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1107427215525096</v>
+        <v>0.112996483472536</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1758487966874191</v>
+        <v>0.1768269294115909</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>131</v>
@@ -8648,19 +8648,19 @@
         <v>123412</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>105313</v>
+        <v>102840</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>151202</v>
+        <v>148029</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1430317436302873</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1220552304050615</v>
+        <v>0.1191893517912387</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1752391323138309</v>
+        <v>0.1715621784265786</v>
       </c>
     </row>
     <row r="36">
@@ -8677,19 +8677,19 @@
         <v>157465</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>135487</v>
+        <v>133708</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>182518</v>
+        <v>183561</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.3311864329396132</v>
+        <v>0.3311864329396131</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2849614453656033</v>
+        <v>0.281220733061306</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.38387928552901</v>
+        <v>0.3860729527946787</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>166</v>
@@ -8698,19 +8698,19 @@
         <v>120515</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>105088</v>
+        <v>105203</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>137242</v>
+        <v>137151</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3111084406812525</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2712842570322188</v>
+        <v>0.2715811082355902</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3542899263636761</v>
+        <v>0.3540530732244827</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>297</v>
@@ -8719,19 +8719,19 @@
         <v>277980</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>248812</v>
+        <v>250477</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>309479</v>
+        <v>309028</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.3221722811290479</v>
+        <v>0.3221722811290478</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2883670944507427</v>
+        <v>0.2902975185874045</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3586790655641675</v>
+        <v>0.3581562886121887</v>
       </c>
     </row>
     <row r="37">
@@ -8748,19 +8748,19 @@
         <v>90895</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>71856</v>
+        <v>72393</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>109647</v>
+        <v>115231</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1911731961702899</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1511310695678323</v>
+        <v>0.1522589243166104</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2306141059411831</v>
+        <v>0.242358438560718</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>95</v>
@@ -8769,19 +8769,19 @@
         <v>78270</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>64785</v>
+        <v>63764</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>94094</v>
+        <v>94432</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2020539853845034</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1672426237833588</v>
+        <v>0.1646069403165974</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2429024547895577</v>
+        <v>0.2437760661213638</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>172</v>
@@ -8790,19 +8790,19 @@
         <v>169165</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>146805</v>
+        <v>147864</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>192909</v>
+        <v>196114</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1960582008327874</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1701435671424456</v>
+        <v>0.1713712706500818</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2235765256924959</v>
+        <v>0.2272912250508166</v>
       </c>
     </row>
     <row r="38">
@@ -8819,19 +8819,19 @@
         <v>29301</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>16810</v>
+        <v>18016</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>44998</v>
+        <v>46068</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.06162641920205751</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03535588143119787</v>
+        <v>0.03789217479781797</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09464187961264527</v>
+        <v>0.09689237622258101</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>37</v>
@@ -8840,19 +8840,19 @@
         <v>32528</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>23827</v>
+        <v>23179</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>44669</v>
+        <v>45755</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08397033473743247</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.06150954250712024</v>
+        <v>0.05983520512270453</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1153129994427602</v>
+        <v>0.1181171693394846</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>57</v>
@@ -8861,19 +8861,19 @@
         <v>61829</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>46463</v>
+        <v>45427</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>80599</v>
+        <v>81449</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.07165787275013068</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.05385005963127174</v>
+        <v>0.05264875475260699</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.09341202302179355</v>
+        <v>0.09439766434054822</v>
       </c>
     </row>
     <row r="39">
